--- a/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Sala</t>
   </si>
@@ -82,13 +82,40 @@
   </si>
   <si>
     <t>KP</t>
+  </si>
+  <si>
+    <t>Pojemność</t>
+  </si>
+  <si>
+    <t>Wyposażenie</t>
+  </si>
+  <si>
+    <t>Słowa kluczowe</t>
+  </si>
+  <si>
+    <t>#Spetometr</t>
+  </si>
+  <si>
+    <t>#Rzutnik7D #Manometr</t>
+  </si>
+  <si>
+    <t>#Warszawa #Kampus1</t>
+  </si>
+  <si>
+    <t>#Kraków #Kampus2</t>
+  </si>
+  <si>
+    <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord istnieje (Sala+Budynek).</t>
+  </si>
+  <si>
+    <t>Pamiętaj, by raz wartości w kolumnach A i B nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -105,8 +132,16 @@
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +151,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,16 +175,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,46 +489,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -485,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -493,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -501,15 +591,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -517,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -525,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -533,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -541,23 +634,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -565,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -573,7 +672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Sala</t>
   </si>
@@ -109,13 +109,19 @@
   </si>
   <si>
     <t>Pamiętaj, by raz wartości w kolumnach A i B nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
+  </si>
+  <si>
+    <t>Integration Id</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -140,8 +146,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -187,6 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
@@ -489,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -502,9 +521,10 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -520,8 +540,11 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -534,10 +557,9 @@
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -546,18 +568,18 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -566,8 +588,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -575,15 +598,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -591,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -602,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -610,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -618,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -626,7 +661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -634,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -645,7 +680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -656,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -664,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -672,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
@@ -114,7 +114,7 @@
     <t>Integration Id</t>
   </si>
   <si>
-    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:Q5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/sale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Sala</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
+  </si>
+  <si>
+    <t>Jednostka organizacyjna</t>
+  </si>
+  <si>
+    <t>W polu Jednostka organizacyjna wpisz nazwę Uczelni lub nazwę Wydziału lub nazwę instytutu. Pole może pozostać puste.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -522,6 +528,7 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -542,6 +549,9 @@
       </c>
       <c r="F1" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -618,12 +628,15 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
